--- a/data/university_votingNEW.xlsx
+++ b/data/university_votingNEW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayamitrasinovic/Desktop/python/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayamitrasinovic/Desktop/python/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751A408C-A554-DD4D-870D-8F724508318D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04E23D2A-906F-1A4A-AE0D-6AB41FF13DA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15760" xr2:uid="{AE69B8EE-32DD-5C42-A9B1-5C6F526B8294}"/>
+    <workbookView xWindow="3660" yWindow="460" windowWidth="27640" windowHeight="15760" xr2:uid="{AE69B8EE-32DD-5C42-A9B1-5C6F526B8294}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="356">
   <si>
     <t>University</t>
   </si>
   <si>
     <t>State</t>
-  </si>
-  <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long</t>
   </si>
   <si>
     <t>Trump</t>
@@ -1464,10 +1458,13 @@
   <dimension ref="A1:J302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1476,5137 +1473,4830 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
         <v>0.34391637449681861</v>
       </c>
-      <c r="F2" s="2">
+      <c r="D2" s="2">
         <v>0.56804311128424878</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
         <v>0.29757680984373819</v>
       </c>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
         <v>0.60262700988903151</v>
       </c>
-      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
         <v>0.65665046398585947</v>
       </c>
-      <c r="F4" s="2">
+      <c r="D4" s="2">
         <v>0.27132125497127707</v>
       </c>
-      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
         <v>0.64811320754716983</v>
       </c>
-      <c r="F5" s="2">
+      <c r="D5" s="2">
         <v>0.27767295597484276</v>
       </c>
-      <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2">
         <v>0.68830591373943972</v>
       </c>
-      <c r="F6" s="2">
+      <c r="D6" s="2">
         <v>0.2774566473988439</v>
       </c>
-      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
         <v>0.49107909550615397</v>
       </c>
-      <c r="F7" s="2">
+      <c r="D7" s="2">
         <v>0.44766720732754506</v>
       </c>
-      <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
         <v>0.3579482293155471</v>
       </c>
-      <c r="F8" s="2">
+      <c r="D8" s="2">
         <v>0.54390979831665875</v>
       </c>
-      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
         <v>0.25161909330774768</v>
       </c>
-      <c r="F9" s="2">
+      <c r="D9" s="2">
         <v>0.66154953226193336</v>
       </c>
-      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.27899727237303545</v>
       </c>
-      <c r="F10" s="2">
+      <c r="D10" s="2">
         <v>0.57643849850629947</v>
       </c>
-      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2">
         <v>0.14912061868529375</v>
       </c>
-      <c r="F11" s="2">
+      <c r="D11" s="2">
         <v>0.77978046650866906</v>
       </c>
-      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="2">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
         <v>0.31436814772071553</v>
       </c>
-      <c r="F12" s="2">
+      <c r="D12" s="2">
         <v>0.59492210040392379</v>
       </c>
-      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2">
         <v>0.45617173524150267</v>
       </c>
-      <c r="F13" s="2">
+      <c r="D13" s="2">
         <v>0.4597495527728086</v>
       </c>
-      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="2">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2">
         <v>0.32489170276574475</v>
       </c>
-      <c r="F14" s="2">
+      <c r="D14" s="2">
         <v>0.19801732755748083</v>
       </c>
-      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
         <v>0.51780726256983245</v>
       </c>
-      <c r="F15" s="2">
+      <c r="D15" s="2">
         <v>7.9027001862197396E-2</v>
       </c>
-      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="2">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
         <v>0.10149511213341</v>
       </c>
-      <c r="F16" s="2">
+      <c r="D16" s="2">
         <v>0.84032969139352121</v>
       </c>
-      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="2">
+        <v>32</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.19222754740570952</v>
       </c>
-      <c r="F17" s="2">
+      <c r="D17" s="2">
         <v>0.75015628255886646</v>
       </c>
-      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="2">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2">
         <v>0.27840762690028342</v>
       </c>
-      <c r="F18" s="2">
+      <c r="D18" s="2">
         <v>0.66142746714764233</v>
       </c>
-      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="2">
+        <v>34</v>
+      </c>
+      <c r="C19" s="2">
         <v>0.21904205607476634</v>
       </c>
-      <c r="F19" s="2">
+      <c r="D19" s="2">
         <v>0.65430295950155759</v>
       </c>
-      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="2">
+        <v>34</v>
+      </c>
+      <c r="C20" s="2">
         <v>0.21504201680672269</v>
       </c>
-      <c r="F20" s="2">
+      <c r="D20" s="2">
         <v>0.66655462184873948</v>
       </c>
-      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="2">
+        <v>34</v>
+      </c>
+      <c r="C21" s="2">
         <v>8.8570186875271614E-2</v>
       </c>
-      <c r="F21" s="2">
+      <c r="D21" s="2">
         <v>0.87753150803998259</v>
       </c>
-      <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="2">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
         <v>0.1584291876347951</v>
       </c>
-      <c r="F22" s="2">
+      <c r="D22" s="2">
         <v>0.77183680805176136</v>
       </c>
-      <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="2">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2">
         <v>0.36145574855252277</v>
       </c>
-      <c r="F23" s="2">
+      <c r="D23" s="2">
         <v>0.53862696443341607</v>
       </c>
-      <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="2">
+        <v>34</v>
+      </c>
+      <c r="C24" s="2">
         <v>0.38025404157043879</v>
       </c>
-      <c r="F24" s="2">
+      <c r="D24" s="2">
         <v>0.5323325635103926</v>
       </c>
-      <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="2">
+        <v>34</v>
+      </c>
+      <c r="C25" s="2">
         <v>0.35446199540974754</v>
       </c>
-      <c r="F25" s="2">
+      <c r="D25" s="2">
         <v>0.58026191440529229</v>
       </c>
-      <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="2">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2">
         <v>0.14730698917170582</v>
       </c>
-      <c r="F26" s="2">
+      <c r="D26" s="2">
         <v>0.7965124455069611</v>
       </c>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="2">
+        <v>34</v>
+      </c>
+      <c r="C27" s="2">
         <v>0.25854547822123836</v>
       </c>
-      <c r="F27" s="2">
+      <c r="D27" s="2">
         <v>0.6822709811836708</v>
       </c>
-      <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="2">
+        <v>34</v>
+      </c>
+      <c r="C28" s="2">
         <v>0.22805469783855314</v>
       </c>
-      <c r="F28" s="2">
+      <c r="D28" s="2">
         <v>0.68504631671812966</v>
       </c>
-      <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2">
+        <v>34</v>
+      </c>
+      <c r="C29" s="2">
         <v>0.32511593849157921</v>
       </c>
-      <c r="F29" s="2">
+      <c r="D29" s="2">
         <v>0.60507688552599459</v>
       </c>
-      <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" s="2">
+        <v>34</v>
+      </c>
+      <c r="C30" s="2">
         <v>0.36754176610978523</v>
       </c>
-      <c r="F30" s="2">
+      <c r="D30" s="2">
         <v>0.56451869530628485</v>
       </c>
-      <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
         <v>8.604805774527495E-2</v>
       </c>
-      <c r="F31" s="2">
+      <c r="D31" s="2">
         <v>0.88716877196314936</v>
       </c>
-      <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="2">
+        <v>49</v>
+      </c>
+      <c r="C32" s="2">
         <v>0.3158856235107228</v>
       </c>
-      <c r="F32" s="2">
+      <c r="D32" s="2">
         <v>0.64694201747418589</v>
       </c>
-      <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="2">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2">
         <v>0.34934819175777965</v>
       </c>
-      <c r="F33" s="2">
+      <c r="D33" s="2">
         <v>0.56507569386038692</v>
       </c>
-      <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" s="2">
+        <v>53</v>
+      </c>
+      <c r="C34" s="2">
         <v>0.41425322213798332</v>
       </c>
-      <c r="F34" s="2">
+      <c r="D34" s="2">
         <v>0.50128885519332833</v>
       </c>
-      <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="2">
+        <v>55</v>
+      </c>
+      <c r="C35" s="2">
         <v>0.47733495588682689</v>
       </c>
-      <c r="F35" s="2">
+      <c r="D35" s="2">
         <v>0.42196531791907516</v>
       </c>
-      <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="2">
+        <v>24</v>
+      </c>
+      <c r="C36" s="2">
         <v>0.13245424129108443</v>
       </c>
-      <c r="F36" s="2">
+      <c r="D36" s="2">
         <v>0.83211966148395988</v>
       </c>
-      <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="2">
+        <v>55</v>
+      </c>
+      <c r="C37" s="2">
         <v>0.2628579183064188</v>
       </c>
-      <c r="F37" s="2">
+      <c r="D37" s="2">
         <v>0.64812050481747863</v>
       </c>
-      <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="2">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2">
         <v>0.19502367993214109</v>
       </c>
-      <c r="F38" s="2">
+      <c r="D38" s="2">
         <v>0.69470559129143983</v>
       </c>
-      <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="2">
+        <v>61</v>
+      </c>
+      <c r="C39" s="2">
         <v>0.15077172431576233</v>
       </c>
-      <c r="F39" s="2">
+      <c r="D39" s="2">
         <v>0.78299627951523187</v>
       </c>
-      <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="2">
+        <v>32</v>
+      </c>
+      <c r="C40" s="2">
         <v>0.10330010815234866</v>
       </c>
-      <c r="F40" s="2">
+      <c r="D40" s="2">
         <v>0.8574187789352502</v>
       </c>
-      <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="2">
+        <v>32</v>
+      </c>
+      <c r="C41" s="2">
         <v>9.103818239192174E-2</v>
       </c>
-      <c r="F41" s="2">
+      <c r="D41" s="2">
         <v>0.84017040075733673</v>
       </c>
-      <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2">
         <v>0.18890797449110544</v>
       </c>
-      <c r="F42" s="2">
+      <c r="D42" s="2">
         <v>0.78230567237260362</v>
       </c>
-      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="2">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2">
         <v>0.57627014013210687</v>
       </c>
-      <c r="F43" s="2">
+      <c r="D43" s="2">
         <v>0.39471572319278969</v>
       </c>
-      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="2">
+        <v>51</v>
+      </c>
+      <c r="C44" s="2">
         <v>0.62582469368520266</v>
       </c>
-      <c r="F44" s="2">
+      <c r="D44" s="2">
         <v>0.31479736098020733</v>
       </c>
-      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="2">
+        <v>61</v>
+      </c>
+      <c r="C45" s="2">
         <v>0.14221880692167577</v>
       </c>
-      <c r="F45" s="2">
+      <c r="D45" s="2">
         <v>0.77447632058287796</v>
       </c>
-      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
-      </c>
-      <c r="E46" s="2">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2">
         <v>9.0028704804430398E-2</v>
       </c>
-      <c r="F46" s="2">
+      <c r="D46" s="2">
         <v>0.87616341442198964</v>
       </c>
-      <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" s="2">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2">
         <v>8.0558416294770563E-2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="D47" s="2">
         <v>0.87996338253804784</v>
       </c>
-      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="2">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
         <v>0.30356156125985834</v>
       </c>
-      <c r="F48" s="2">
+      <c r="D48" s="2">
         <v>0.65338825538755207</v>
       </c>
-      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="E49" s="2">
+        <v>14</v>
+      </c>
+      <c r="C49" s="2">
         <v>0.53506001263423875</v>
       </c>
-      <c r="F49" s="2">
+      <c r="D49" s="2">
         <v>0.39576753000631709</v>
       </c>
-      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="2">
+        <v>61</v>
+      </c>
+      <c r="C50" s="2">
         <v>0.45662507427213311</v>
       </c>
-      <c r="F50" s="2">
+      <c r="D50" s="2">
         <v>0.45959595959595961</v>
       </c>
-      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>77</v>
-      </c>
-      <c r="E51" s="2">
+        <v>75</v>
+      </c>
+      <c r="C51" s="2">
         <v>0.52178267401101652</v>
       </c>
-      <c r="F51" s="2">
+      <c r="D51" s="2">
         <v>0.39859789684526792</v>
       </c>
-      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="E52" s="2">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
         <v>0.35886093447608514</v>
       </c>
-      <c r="F52" s="2">
+      <c r="D52" s="2">
         <v>0.4570085706386508</v>
       </c>
-      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="2">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2">
         <v>0.19932555596062704</v>
       </c>
-      <c r="F53" s="2">
+      <c r="D53" s="2">
         <v>0.75774699234414877</v>
       </c>
-      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="2">
+        <v>51</v>
+      </c>
+      <c r="C54" s="2">
         <v>0.49703410776075135</v>
       </c>
-      <c r="F54" s="2">
+      <c r="D54" s="2">
         <v>0.41695501730103807</v>
       </c>
-      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E55" s="2">
+        <v>81</v>
+      </c>
+      <c r="C55" s="2">
         <v>0.41752161383285302</v>
       </c>
-      <c r="F55" s="2">
+      <c r="D55" s="2">
         <v>0.54870317002881841</v>
       </c>
-      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E56" s="2">
+        <v>81</v>
+      </c>
+      <c r="C56" s="2">
         <v>0.62245392822502421</v>
       </c>
-      <c r="F56" s="2">
+      <c r="D56" s="2">
         <v>0.33050436469447136</v>
       </c>
-      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" s="2">
+        <v>81</v>
+      </c>
+      <c r="C57" s="2">
         <v>0.46586258884342019</v>
       </c>
-      <c r="F57" s="2">
+      <c r="D57" s="2">
         <v>0.50122765453370666</v>
       </c>
-      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="E58" s="2">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2">
         <v>0.17396907216494845</v>
       </c>
-      <c r="F58" s="2">
+      <c r="D58" s="2">
         <v>0.77267086674303165</v>
       </c>
-      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E59" s="2">
+        <v>32</v>
+      </c>
+      <c r="C59" s="2">
         <v>7.208492490834062E-2</v>
       </c>
-      <c r="F59" s="2">
+      <c r="D59" s="2">
         <v>0.90491969257674076</v>
       </c>
-      <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="2">
+        <v>87</v>
+      </c>
+      <c r="C60" s="2">
         <v>0.64488497307880566</v>
       </c>
-      <c r="F60" s="2">
+      <c r="D60" s="2">
         <v>0.28854625550660795</v>
       </c>
-      <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>91</v>
-      </c>
-      <c r="E61" s="2">
+        <v>89</v>
+      </c>
+      <c r="C61" s="2">
         <v>0.3147645542135975</v>
       </c>
-      <c r="F61" s="2">
+      <c r="D61" s="2">
         <v>0.61521237617044378</v>
       </c>
-      <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
-      </c>
-      <c r="E62" s="2">
+        <v>91</v>
+      </c>
+      <c r="C62" s="2">
         <v>6.3901999257570133E-2</v>
       </c>
-      <c r="F62" s="2">
+      <c r="D62" s="2">
         <v>0.83173357373919499</v>
       </c>
-      <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="2">
+        <v>78</v>
+      </c>
+      <c r="C63" s="2">
         <v>0.10664575573416978</v>
       </c>
-      <c r="F63" s="2">
+      <c r="D63" s="2">
         <v>0.84862445272168852</v>
       </c>
-      <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="2">
+        <v>78</v>
+      </c>
+      <c r="C64" s="2">
         <v>0.47801475790963305</v>
       </c>
-      <c r="F64" s="2">
+      <c r="D64" s="2">
         <v>0.4738704134236329</v>
       </c>
-      <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
-      </c>
-      <c r="E65" s="2">
+        <v>51</v>
+      </c>
+      <c r="C65" s="2">
         <v>0.55044625533566161</v>
       </c>
-      <c r="F65" s="2">
+      <c r="D65" s="2">
         <v>0.37679472254559565</v>
       </c>
-      <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B66" t="s">
-        <v>24</v>
-      </c>
-      <c r="E66" s="2">
+        <v>22</v>
+      </c>
+      <c r="C66" s="2">
         <v>9.2110094550350352E-2</v>
       </c>
-      <c r="F66" s="2">
+      <c r="D66" s="2">
         <v>0.8472047978948013</v>
       </c>
-      <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="E67" s="2">
+        <v>32</v>
+      </c>
+      <c r="C67" s="2">
         <v>0.11656671664167916</v>
       </c>
-      <c r="F67" s="2">
+      <c r="D67" s="2">
         <v>0.85817091454272865</v>
       </c>
-      <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+      <c r="C68" s="2">
         <v>0.41054659282446426</v>
       </c>
-      <c r="F68" s="2">
+      <c r="D68" s="2">
         <v>0.36672285095111967</v>
       </c>
-      <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="E69" s="2">
+        <v>61</v>
+      </c>
+      <c r="C69" s="2">
         <v>0.30839103566376291</v>
       </c>
-      <c r="F69" s="2">
+      <c r="D69" s="2">
         <v>0.59712605167150623</v>
       </c>
-      <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="2">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2">
         <v>0.38955301455301455</v>
       </c>
-      <c r="F70" s="2">
+      <c r="D70" s="2">
         <v>0.54235966735966734</v>
       </c>
-      <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>18</v>
-      </c>
-      <c r="E71" s="2">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2">
         <v>0.16901408450704225</v>
       </c>
-      <c r="F71" s="2">
+      <c r="D71" s="2">
         <v>0.76490720021060943</v>
       </c>
-      <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>18</v>
-      </c>
-      <c r="E72" s="2">
+        <v>16</v>
+      </c>
+      <c r="C72" s="2">
         <v>0.47060851577314256</v>
       </c>
-      <c r="F72" s="2">
+      <c r="D72" s="2">
         <v>0.44026891915187039</v>
       </c>
-      <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
-      </c>
-      <c r="E73" s="2">
+        <v>16</v>
+      </c>
+      <c r="C73" s="2">
         <v>0.2048131080389145</v>
       </c>
-      <c r="F73" s="2">
+      <c r="D73" s="2">
         <v>0.70779996586448202</v>
       </c>
-      <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="2">
+        <v>16</v>
+      </c>
+      <c r="C74" s="2">
         <v>0.54563269876819709</v>
       </c>
-      <c r="F74" s="2">
+      <c r="D74" s="2">
         <v>0.38801791713325867</v>
       </c>
-      <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="2">
+        <v>105</v>
+      </c>
+      <c r="C75" s="2">
         <v>0.30991388363789119</v>
       </c>
-      <c r="F75" s="2">
+      <c r="D75" s="2">
         <v>0.57535181684520054</v>
       </c>
-      <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>91</v>
-      </c>
-      <c r="E76" s="2">
+        <v>89</v>
+      </c>
+      <c r="C76" s="2">
         <v>0.34583651112805935</v>
       </c>
-      <c r="F76" s="2">
+      <c r="D76" s="2">
         <v>0.57588573805726972</v>
       </c>
-      <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" s="2">
+        <v>108</v>
+      </c>
+      <c r="C77" s="2">
         <v>0.10777289885216855</v>
       </c>
-      <c r="F77" s="2">
+      <c r="D77" s="2">
         <v>0.81811878899930668</v>
       </c>
-      <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>89</v>
-      </c>
-      <c r="E78" s="2">
+        <v>87</v>
+      </c>
+      <c r="C78" s="2">
         <v>0.32853717026378898</v>
       </c>
-      <c r="F78" s="2">
+      <c r="D78" s="2">
         <v>0.55561704482567786</v>
       </c>
-      <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>113</v>
-      </c>
-      <c r="E79" s="2">
+        <v>111</v>
+      </c>
+      <c r="C79" s="2">
         <v>0.28363313042883526</v>
       </c>
-      <c r="F79" s="2">
+      <c r="D79" s="2">
         <v>0.68661514260310508</v>
       </c>
-      <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
-      </c>
-      <c r="E80" s="2">
+        <v>81</v>
+      </c>
+      <c r="C80" s="2">
         <v>0.26003210272873195</v>
       </c>
-      <c r="F80" s="2">
+      <c r="D80" s="2">
         <v>0.71176335702820459</v>
       </c>
-      <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
-      </c>
-      <c r="E81" s="2">
+        <v>78</v>
+      </c>
+      <c r="C81" s="2">
         <v>0.46373877838408734</v>
       </c>
-      <c r="F81" s="2">
+      <c r="D81" s="2">
         <v>0.48327759197324416</v>
       </c>
-      <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>26</v>
-      </c>
-      <c r="E82" s="2">
+        <v>24</v>
+      </c>
+      <c r="C82" s="2">
         <v>0.25432363587612278</v>
       </c>
-      <c r="F82" s="2">
+      <c r="D82" s="2">
         <v>0.6751575278187425</v>
       </c>
-      <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="2">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2">
         <v>0.10889070146818923</v>
       </c>
-      <c r="F83" s="2">
+      <c r="D83" s="2">
         <v>0.86908646003262646</v>
       </c>
-      <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
-      </c>
-      <c r="E84" s="2">
+        <v>89</v>
+      </c>
+      <c r="C84" s="2">
         <v>0.73388305847076463</v>
       </c>
-      <c r="F84" s="2">
+      <c r="D84" s="2">
         <v>0.18478260869565216</v>
       </c>
-      <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="E85" s="2">
+        <v>118</v>
+      </c>
+      <c r="C85" s="2">
         <v>0.5106749523164954</v>
       </c>
-      <c r="F85" s="2">
+      <c r="D85" s="2">
         <v>0.40878607026395125</v>
       </c>
-      <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E86" s="2">
+        <v>32</v>
+      </c>
+      <c r="C86" s="2">
         <v>0.54726368159203975</v>
       </c>
-      <c r="F86" s="2">
+      <c r="D86" s="2">
         <v>0.41492537313432837</v>
       </c>
-      <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" t="s">
-        <v>123</v>
-      </c>
-      <c r="E87" s="2">
+        <v>121</v>
+      </c>
+      <c r="C87" s="2">
         <v>0.24488403819918145</v>
       </c>
-      <c r="F87" s="2">
+      <c r="D87" s="2">
         <v>0.67087312414733968</v>
       </c>
-      <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B88" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="2">
+        <v>121</v>
+      </c>
+      <c r="C88" s="2">
         <v>0.24505928853754941</v>
       </c>
-      <c r="F88" s="2">
+      <c r="D88" s="2">
         <v>0.68537549407114629</v>
       </c>
-      <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B89" t="s">
-        <v>63</v>
-      </c>
-      <c r="E89" s="2">
+        <v>61</v>
+      </c>
+      <c r="C89" s="2">
         <v>8.8107066815370574E-2</v>
       </c>
-      <c r="F89" s="2">
+      <c r="D89" s="2">
         <v>0.85132988610632332</v>
       </c>
-      <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s">
-        <v>127</v>
-      </c>
-      <c r="E90" s="2">
+        <v>125</v>
+      </c>
+      <c r="C90" s="2">
         <v>0.15534670668140893</v>
       </c>
-      <c r="F90" s="2">
+      <c r="D90" s="2">
         <v>0.78494708576844097</v>
       </c>
-      <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B91" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="2">
+        <v>127</v>
+      </c>
+      <c r="C91" s="2">
         <v>0.42204549657850932</v>
       </c>
-      <c r="F91" s="2">
+      <c r="D91" s="2">
         <v>0.51081930830405031</v>
       </c>
-      <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B92" t="s">
-        <v>34</v>
-      </c>
-      <c r="E92" s="2">
+        <v>32</v>
+      </c>
+      <c r="C92" s="2">
         <v>0.25080006737409466</v>
       </c>
-      <c r="F92" s="2">
+      <c r="D92" s="2">
         <v>0.7047330301499074</v>
       </c>
-      <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B93" t="s">
-        <v>61</v>
-      </c>
-      <c r="E93" s="2">
+        <v>59</v>
+      </c>
+      <c r="C93" s="2">
         <v>0.18470562987338149</v>
       </c>
-      <c r="F93" s="2">
+      <c r="D93" s="2">
         <v>0.72866442520924246</v>
       </c>
-      <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B94" t="s">
-        <v>26</v>
-      </c>
-      <c r="E94" s="2">
+        <v>24</v>
+      </c>
+      <c r="C94" s="2">
         <v>0.33396453778619384</v>
       </c>
-      <c r="F94" s="2">
+      <c r="D94" s="2">
         <v>0.61180926149079018</v>
       </c>
-      <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B95" t="s">
-        <v>53</v>
-      </c>
-      <c r="E95" s="2">
+        <v>51</v>
+      </c>
+      <c r="C95" s="2">
         <v>0.24095800631119021</v>
       </c>
-      <c r="F95" s="2">
+      <c r="D95" s="2">
         <v>0.69487822639372121</v>
       </c>
-      <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="2">
+        <v>14</v>
+      </c>
+      <c r="C96" s="2">
         <v>0.44667258207630878</v>
       </c>
-      <c r="F96" s="2">
+      <c r="D96" s="2">
         <v>0.48172138420585625</v>
       </c>
-      <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B97" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="2">
+        <v>134</v>
+      </c>
+      <c r="C97" s="2">
         <v>0.37967658597263421</v>
       </c>
-      <c r="F97" s="2">
+      <c r="D97" s="2">
         <v>0.50110037317003153</v>
       </c>
-      <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B98" t="s">
-        <v>138</v>
-      </c>
-      <c r="E98" s="2">
+        <v>136</v>
+      </c>
+      <c r="C98" s="2">
         <v>0.47522488184174416</v>
       </c>
-      <c r="F98" s="2">
+      <c r="D98" s="2">
         <v>0.47705442902881534</v>
       </c>
-      <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
-      </c>
-      <c r="E99" s="2">
+        <v>118</v>
+      </c>
+      <c r="C99" s="2">
         <v>0.33193618171984857</v>
       </c>
-      <c r="F99" s="2">
+      <c r="D99" s="2">
         <v>0.56449432125473231</v>
       </c>
-      <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
-      </c>
-      <c r="E100" s="2">
+        <v>139</v>
+      </c>
+      <c r="C100" s="2">
         <v>0.29797377830750893</v>
       </c>
-      <c r="F100" s="2">
+      <c r="D100" s="2">
         <v>0.58892861872599656</v>
       </c>
-      <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B101" t="s">
-        <v>113</v>
-      </c>
-      <c r="E101" s="2">
+        <v>111</v>
+      </c>
+      <c r="C101" s="2">
         <v>0.38725080577772475</v>
       </c>
-      <c r="F101" s="2">
+      <c r="D101" s="2">
         <v>0.57729497433448729</v>
       </c>
-      <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="E102" s="2">
+        <v>75</v>
+      </c>
+      <c r="C102" s="2">
         <v>0.44681988241582044</v>
       </c>
-      <c r="F102" s="2">
+      <c r="D102" s="2">
         <v>0.50080171031533938</v>
       </c>
-      <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2">
+        <v>75</v>
+      </c>
+      <c r="C103" s="2">
         <v>0.58100858369098718</v>
       </c>
-      <c r="F103" s="2">
+      <c r="D103" s="2">
         <v>0.35515021459227469</v>
       </c>
-      <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B104" t="s">
-        <v>146</v>
-      </c>
-      <c r="E104" s="2">
+        <v>144</v>
+      </c>
+      <c r="C104" s="2">
         <v>0.29769016328156112</v>
       </c>
-      <c r="F104" s="2">
+      <c r="D104" s="2">
         <v>0.55336519315013943</v>
       </c>
-      <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
-      </c>
-      <c r="E105" s="2">
+        <v>32</v>
+      </c>
+      <c r="C105" s="2">
         <v>4.8580508474576269E-2</v>
       </c>
-      <c r="F105" s="2">
+      <c r="D105" s="2">
         <v>0.91516949152542371</v>
       </c>
-      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
-      </c>
-      <c r="E106" s="2">
+        <v>5</v>
+      </c>
+      <c r="C106" s="2">
         <v>0.20832922135596565</v>
       </c>
-      <c r="F106" s="2">
+      <c r="D106" s="2">
         <v>0.7269318069673345</v>
       </c>
-      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B107" t="s">
-        <v>150</v>
-      </c>
-      <c r="E107" s="2">
+        <v>148</v>
+      </c>
+      <c r="C107" s="2">
         <v>0.42388243576205559</v>
       </c>
-      <c r="F107" s="2">
+      <c r="D107" s="2">
         <v>0.43910594860964447</v>
       </c>
-      <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B108" t="s">
-        <v>63</v>
-      </c>
-      <c r="E108" s="2">
+        <v>61</v>
+      </c>
+      <c r="C108" s="2">
         <v>0.19306645131518227</v>
       </c>
-      <c r="F108" s="2">
+      <c r="D108" s="2">
         <v>0.74994231656668209</v>
       </c>
-      <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
-      </c>
-      <c r="E109" s="2">
+        <v>7</v>
+      </c>
+      <c r="C109" s="2">
         <v>0.23834300580348208</v>
       </c>
-      <c r="F109" s="2">
+      <c r="D109" s="2">
         <v>0.64708825295177108</v>
       </c>
-      <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B110" t="s">
-        <v>63</v>
-      </c>
-      <c r="E110" s="2">
+        <v>61</v>
+      </c>
+      <c r="C110" s="2">
         <v>0.28458961474036854</v>
       </c>
-      <c r="F110" s="2">
+      <c r="D110" s="2">
         <v>0.63777219430485765</v>
       </c>
-      <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B111" t="s">
-        <v>77</v>
-      </c>
-      <c r="E111" s="2">
+        <v>75</v>
+      </c>
+      <c r="C111" s="2">
         <v>0.57167090754877015</v>
       </c>
-      <c r="F111" s="2">
+      <c r="D111" s="2">
         <v>0.42832909245122985</v>
       </c>
-      <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B112" t="s">
-        <v>63</v>
-      </c>
-      <c r="E112" s="2">
+        <v>61</v>
+      </c>
+      <c r="C112" s="2">
         <v>7.4625232519969359E-2</v>
       </c>
-      <c r="F112" s="2">
+      <c r="D112" s="2">
         <v>0.86869460553671085</v>
       </c>
-      <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B113" t="s">
-        <v>83</v>
-      </c>
-      <c r="E113" s="2">
+        <v>81</v>
+      </c>
+      <c r="C113" s="2">
         <v>0.36493575610126966</v>
       </c>
-      <c r="F113" s="2">
+      <c r="D113" s="2">
         <v>0.59461719759750631</v>
       </c>
-      <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B114" t="s">
-        <v>53</v>
-      </c>
-      <c r="E114" s="2">
+        <v>51</v>
+      </c>
+      <c r="C114" s="2">
         <v>0.47891566265060243</v>
       </c>
-      <c r="F114" s="2">
+      <c r="D114" s="2">
         <v>0.45659107016300499</v>
       </c>
-      <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
-      </c>
-      <c r="E115" s="2">
+        <v>24</v>
+      </c>
+      <c r="C115" s="2">
         <v>0.18159069107895065</v>
       </c>
-      <c r="F115" s="2">
+      <c r="D115" s="2">
         <v>0.7524294115193727</v>
       </c>
-      <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B116" t="s">
-        <v>26</v>
-      </c>
-      <c r="E116" s="2">
+        <v>24</v>
+      </c>
+      <c r="C116" s="2">
         <v>0.25960488434428669</v>
       </c>
-      <c r="F116" s="2">
+      <c r="D116" s="2">
         <v>0.67427777226248387</v>
       </c>
-      <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
-      </c>
-      <c r="E117" s="2">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2">
         <v>0.43934019155728982</v>
       </c>
-      <c r="F117" s="2">
+      <c r="D117" s="2">
         <v>0.44962752749201845</v>
       </c>
-      <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B118" t="s">
-        <v>91</v>
-      </c>
-      <c r="E118" s="2">
+        <v>89</v>
+      </c>
+      <c r="C118" s="2">
         <v>0.20198488778617346</v>
       </c>
-      <c r="F118" s="2">
+      <c r="D118" s="2">
         <v>0.73034848313973166</v>
       </c>
-      <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B119" t="s">
-        <v>164</v>
-      </c>
-      <c r="E119" s="2">
+        <v>162</v>
+      </c>
+      <c r="C119" s="2">
         <v>0.15878080238951869</v>
       </c>
-      <c r="F119" s="2">
+      <c r="D119" s="2">
         <v>0.71712714683320888</v>
       </c>
-      <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>120</v>
-      </c>
-      <c r="E120" s="2">
+        <v>118</v>
+      </c>
+      <c r="C120" s="2">
         <v>0.45345858240819814</v>
       </c>
-      <c r="F120" s="2">
+      <c r="D120" s="2">
         <v>0.47879305436948477</v>
       </c>
-      <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>71</v>
-      </c>
-      <c r="E121" s="2">
+        <v>69</v>
+      </c>
+      <c r="C121" s="2">
         <v>0.29094188143580196</v>
       </c>
-      <c r="F121" s="2">
+      <c r="D121" s="2">
         <v>0.63866426202804116</v>
       </c>
-      <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B122" t="s">
-        <v>164</v>
-      </c>
-      <c r="E122" s="2">
+        <v>162</v>
+      </c>
+      <c r="C122" s="2">
         <v>8.5922443187834888E-2</v>
       </c>
-      <c r="F122" s="2">
+      <c r="D122" s="2">
         <v>0.82557129847300759</v>
       </c>
-      <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
-      </c>
-      <c r="E123" s="2">
+        <v>16</v>
+      </c>
+      <c r="C123" s="2">
         <v>0.33952823445318087</v>
       </c>
-      <c r="F123" s="2">
+      <c r="D123" s="2">
         <v>0.56343817012151531</v>
       </c>
-      <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B124" t="s">
-        <v>18</v>
-      </c>
-      <c r="E124" s="2">
+        <v>16</v>
+      </c>
+      <c r="C124" s="2">
         <v>0.30114264651677108</v>
       </c>
-      <c r="F124" s="2">
+      <c r="D124" s="2">
         <v>0.6369332841872466</v>
       </c>
-      <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B125" t="s">
-        <v>61</v>
-      </c>
-      <c r="E125" s="2">
+        <v>59</v>
+      </c>
+      <c r="C125" s="2">
         <v>0.18677272057740463</v>
       </c>
-      <c r="F125" s="2">
+      <c r="D125" s="2">
         <v>0.73854765061128291</v>
       </c>
-      <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B126" t="s">
-        <v>113</v>
-      </c>
-      <c r="E126" s="2">
+        <v>111</v>
+      </c>
+      <c r="C126" s="2">
         <v>0.42497125335377539</v>
       </c>
-      <c r="F126" s="2">
+      <c r="D126" s="2">
         <v>0.51427750095822156</v>
       </c>
-      <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>113</v>
-      </c>
-      <c r="E127" s="2">
+        <v>111</v>
+      </c>
+      <c r="C127" s="2">
         <v>0.1480379188712522</v>
       </c>
-      <c r="F127" s="2">
+      <c r="D127" s="2">
         <v>0.80742945326278659</v>
       </c>
-      <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B128" t="s">
-        <v>113</v>
-      </c>
-      <c r="E128" s="2">
+        <v>111</v>
+      </c>
+      <c r="C128" s="2">
         <v>8.7836853605243986E-2</v>
       </c>
-      <c r="F128" s="2">
+      <c r="D128" s="2">
         <v>0.88907501820830304</v>
       </c>
-      <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="2">
+        <v>51</v>
+      </c>
+      <c r="C129" s="2">
         <v>0.61066969353007949</v>
       </c>
-      <c r="F129" s="2">
+      <c r="D129" s="2">
         <v>0.34222474460839952</v>
       </c>
-      <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B130" t="s">
-        <v>20</v>
-      </c>
-      <c r="E130" s="2">
+        <v>18</v>
+      </c>
+      <c r="C130" s="2">
         <v>0.47911098607399072</v>
       </c>
-      <c r="F130" s="2">
+      <c r="D130" s="2">
         <v>0.44492896328597553</v>
       </c>
-      <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
-      </c>
-      <c r="E131" s="2">
+        <v>34</v>
+      </c>
+      <c r="C131" s="2">
         <v>0.27729701256678457</v>
       </c>
-      <c r="F131" s="2">
+      <c r="D131" s="2">
         <v>0.65136579125592597</v>
       </c>
-      <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
-      </c>
-      <c r="E132" s="2">
+        <v>34</v>
+      </c>
+      <c r="C132" s="2">
         <v>0.15906687402799377</v>
       </c>
-      <c r="F132" s="2">
+      <c r="D132" s="2">
         <v>0.78077760497667181</v>
       </c>
-      <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B133" t="s">
-        <v>36</v>
-      </c>
-      <c r="E133" s="2">
+        <v>34</v>
+      </c>
+      <c r="C133" s="2">
         <v>0.11003149858523303</v>
       </c>
-      <c r="F133" s="2">
+      <c r="D133" s="2">
         <v>0.81004751481501258</v>
       </c>
-      <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B134" t="s">
-        <v>80</v>
-      </c>
-      <c r="E134" s="2">
+        <v>78</v>
+      </c>
+      <c r="C134" s="2">
         <v>0.1364190012180268</v>
       </c>
-      <c r="F134" s="2">
+      <c r="D134" s="2">
         <v>0.836243064014075</v>
       </c>
-      <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B135" t="s">
-        <v>181</v>
-      </c>
-      <c r="E135" s="2">
+        <v>179</v>
+      </c>
+      <c r="C135" s="2">
         <v>0.50880563560678838</v>
       </c>
-      <c r="F135" s="2">
+      <c r="D135" s="2">
         <v>0.38232468780019213</v>
       </c>
-      <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B136" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" s="2">
+        <v>118</v>
+      </c>
+      <c r="C136" s="2">
         <v>0.58117718262974727</v>
       </c>
-      <c r="F136" s="2">
+      <c r="D136" s="2">
         <v>0.35254955363897716</v>
       </c>
-      <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>123</v>
-      </c>
-      <c r="E137" s="2">
+        <v>121</v>
+      </c>
+      <c r="C137" s="2">
         <v>0.40081135902636916</v>
       </c>
-      <c r="F137" s="2">
+      <c r="D137" s="2">
         <v>0.56004056795131851</v>
       </c>
-      <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B138" t="s">
-        <v>63</v>
-      </c>
-      <c r="E138" s="2">
+        <v>61</v>
+      </c>
+      <c r="C138" s="2">
         <v>0.17190167292591327</v>
       </c>
-      <c r="F138" s="2">
+      <c r="D138" s="2">
         <v>0.70433595083646294</v>
       </c>
-      <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B139" t="s">
-        <v>63</v>
-      </c>
-      <c r="E139" s="2">
+        <v>61</v>
+      </c>
+      <c r="C139" s="2">
         <v>0.36916122551481667</v>
       </c>
-      <c r="F139" s="2">
+      <c r="D139" s="2">
         <v>0.56403817177297844</v>
       </c>
-      <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
-      </c>
-      <c r="E140" s="2">
+        <v>18</v>
+      </c>
+      <c r="C140" s="2">
         <v>0.5582339017438771</v>
       </c>
-      <c r="F140" s="2">
+      <c r="D140" s="2">
         <v>0.38698613593546205</v>
       </c>
-      <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
-      </c>
-      <c r="E141" s="2">
+        <v>186</v>
+      </c>
+      <c r="C141" s="2">
         <v>0.46939072269885124</v>
       </c>
-      <c r="F141" s="2">
+      <c r="D141" s="2">
         <v>0.46706412679947651</v>
       </c>
-      <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
-      </c>
-      <c r="E142" s="2">
+        <v>134</v>
+      </c>
+      <c r="C142" s="2">
         <v>0.38905747947161728</v>
       </c>
-      <c r="F142" s="2">
+      <c r="D142" s="2">
         <v>0.49384148518386289</v>
       </c>
-      <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B143" t="s">
-        <v>34</v>
-      </c>
-      <c r="E143" s="2">
+        <v>32</v>
+      </c>
+      <c r="C143" s="2">
         <v>0.26016260162601629</v>
       </c>
-      <c r="F143" s="2">
+      <c r="D143" s="2">
         <v>0.71040165686209711</v>
       </c>
-      <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B144" t="s">
-        <v>83</v>
-      </c>
-      <c r="E144" s="2">
+        <v>81</v>
+      </c>
+      <c r="C144" s="2">
         <v>0.67782115634876372</v>
       </c>
-      <c r="F144" s="2">
+      <c r="D144" s="2">
         <v>0.27663134411600671</v>
       </c>
-      <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B145" t="s">
-        <v>120</v>
-      </c>
-      <c r="E145" s="2">
+        <v>118</v>
+      </c>
+      <c r="C145" s="2">
         <v>7.6655485153435204E-2</v>
       </c>
-      <c r="F145" s="2">
+      <c r="D145" s="2">
         <v>0.88172443781836252</v>
       </c>
-      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B146" t="s">
-        <v>83</v>
-      </c>
-      <c r="E146" s="2">
+        <v>81</v>
+      </c>
+      <c r="C146" s="2">
         <v>0.47525779134742785</v>
       </c>
-      <c r="F146" s="2">
+      <c r="D146" s="2">
         <v>0.4659254565355147</v>
       </c>
-      <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B147" t="s">
-        <v>36</v>
-      </c>
-      <c r="E147" s="2">
+        <v>34</v>
+      </c>
+      <c r="C147" s="2">
         <v>0.10879583249849729</v>
       </c>
-      <c r="F147" s="2">
+      <c r="D147" s="2">
         <v>0.82879182528551387</v>
       </c>
-      <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B148" t="s">
-        <v>20</v>
-      </c>
-      <c r="E148" s="2">
+        <v>18</v>
+      </c>
+      <c r="C148" s="2">
         <v>0.51110439643450667</v>
       </c>
-      <c r="F148" s="2">
+      <c r="D148" s="2">
         <v>0.41577277534370749</v>
       </c>
-      <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
-      </c>
-      <c r="E149" s="2">
+        <v>32</v>
+      </c>
+      <c r="C149" s="2">
         <v>0.35538574269862871</v>
       </c>
-      <c r="F149" s="2">
+      <c r="D149" s="2">
         <v>0.59279807390348582</v>
       </c>
-      <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B150" t="s">
-        <v>34</v>
-      </c>
-      <c r="E150" s="2">
+        <v>32</v>
+      </c>
+      <c r="C150" s="2">
         <v>0.29896496815286622</v>
       </c>
-      <c r="F150" s="2">
+      <c r="D150" s="2">
         <v>0.64238322717622076</v>
       </c>
-      <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
-      </c>
-      <c r="E151" s="2">
+        <v>32</v>
+      </c>
+      <c r="C151" s="2">
         <v>0.30767909293935752</v>
       </c>
-      <c r="F151" s="2">
+      <c r="D151" s="2">
         <v>0.61913760522247041</v>
       </c>
-      <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
-      </c>
-      <c r="E152" s="2">
+        <v>32</v>
+      </c>
+      <c r="C152" s="2">
         <v>0.27716211584599565</v>
       </c>
-      <c r="F152" s="2">
+      <c r="D152" s="2">
         <v>0.64183708442819609</v>
       </c>
-      <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B153" t="s">
-        <v>34</v>
-      </c>
-      <c r="E153" s="2">
+        <v>32</v>
+      </c>
+      <c r="C153" s="2">
         <v>9.6807682325460678E-2</v>
       </c>
-      <c r="F153" s="2">
+      <c r="D153" s="2">
         <v>0.84765118089800151</v>
       </c>
-      <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B154" t="s">
-        <v>20</v>
-      </c>
-      <c r="E154" s="2">
+        <v>18</v>
+      </c>
+      <c r="C154" s="2">
         <v>0.73747961798276263</v>
       </c>
-      <c r="F154" s="2">
+      <c r="D154" s="2">
         <v>0.20614954577218728</v>
       </c>
-      <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B155" t="s">
-        <v>71</v>
-      </c>
-      <c r="E155" s="2">
+        <v>69</v>
+      </c>
+      <c r="C155" s="2">
         <v>4.6842563450077014E-2</v>
       </c>
-      <c r="F155" s="2">
+      <c r="D155" s="2">
         <v>0.929351101587089</v>
       </c>
-      <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B156" t="s">
-        <v>16</v>
-      </c>
-      <c r="E156" s="2">
+        <v>14</v>
+      </c>
+      <c r="C156" s="2">
         <v>0.62821559820334827</v>
       </c>
-      <c r="F156" s="2">
+      <c r="D156" s="2">
         <v>0.3162515312372397</v>
       </c>
-      <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
-      </c>
-      <c r="E157" s="2">
+        <v>18</v>
+      </c>
+      <c r="C157" s="2">
         <v>0.44977220956719816</v>
       </c>
-      <c r="F157" s="2">
+      <c r="D157" s="2">
         <v>0.4376993166287016</v>
       </c>
-      <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B158" t="s">
-        <v>20</v>
-      </c>
-      <c r="E158" s="2">
+        <v>18</v>
+      </c>
+      <c r="C158" s="2">
         <v>0.55379746835443033</v>
       </c>
-      <c r="F158" s="2">
+      <c r="D158" s="2">
         <v>0.38291139240506328</v>
       </c>
-      <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
-      </c>
-      <c r="E159" s="2">
+        <v>18</v>
+      </c>
+      <c r="C159" s="2">
         <v>0.51241344367505492</v>
       </c>
-      <c r="F159" s="2">
+      <c r="D159" s="2">
         <v>0.42830602938692791</v>
       </c>
-      <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B160" t="s">
-        <v>20</v>
-      </c>
-      <c r="E160" s="2">
+        <v>18</v>
+      </c>
+      <c r="C160" s="2">
         <v>0.39524124256444149</v>
       </c>
-      <c r="F160" s="2">
+      <c r="D160" s="2">
         <v>0.54758757435558492</v>
       </c>
-      <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B161" t="s">
-        <v>20</v>
-      </c>
-      <c r="E161" s="2">
+        <v>18</v>
+      </c>
+      <c r="C161" s="2">
         <v>0.28768667230205691</v>
       </c>
-      <c r="F161" s="2">
+      <c r="D161" s="2">
         <v>0.61806142575373346</v>
       </c>
-      <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B162" t="s">
-        <v>20</v>
-      </c>
-      <c r="E162" s="2">
+        <v>18</v>
+      </c>
+      <c r="C162" s="2">
         <v>0.46704312114989732</v>
       </c>
-      <c r="F162" s="2">
+      <c r="D162" s="2">
         <v>0.45287474332648869</v>
       </c>
-      <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B163" t="s">
-        <v>113</v>
-      </c>
-      <c r="E163" s="2">
+        <v>111</v>
+      </c>
+      <c r="C163" s="2">
         <v>0.17567207878626565</v>
       </c>
-      <c r="F163" s="2">
+      <c r="D163" s="2">
         <v>0.79655753704196608</v>
       </c>
-      <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B164" t="s">
-        <v>110</v>
-      </c>
-      <c r="E164" s="2">
+        <v>108</v>
+      </c>
+      <c r="C164" s="2">
         <v>0.33611670985699205</v>
       </c>
-      <c r="F164" s="2">
+      <c r="D164" s="2">
         <v>0.57260773586716573</v>
       </c>
-      <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="2">
+        <v>12</v>
+      </c>
+      <c r="C165" s="2">
         <v>0.65220048899755501</v>
       </c>
-      <c r="F165" s="2">
+      <c r="D165" s="2">
         <v>0.29278728606356969</v>
       </c>
-      <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
-      </c>
-      <c r="E166" s="2">
+        <v>121</v>
+      </c>
+      <c r="C166" s="2">
         <v>0.23578269979048189</v>
       </c>
-      <c r="F166" s="2">
+      <c r="D166" s="2">
         <v>0.68564800957797067</v>
       </c>
-      <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B167" t="s">
-        <v>34</v>
-      </c>
-      <c r="E167" s="2">
+        <v>32</v>
+      </c>
+      <c r="C167" s="2">
         <v>0.22905154795246385</v>
       </c>
-      <c r="F167" s="2">
+      <c r="D167" s="2">
         <v>0.72341230792521383</v>
       </c>
-      <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>26</v>
-      </c>
-      <c r="E168" s="2">
+        <v>24</v>
+      </c>
+      <c r="C168" s="2">
         <v>0.2195520298646757</v>
       </c>
-      <c r="F168" s="2">
+      <c r="D168" s="2">
         <v>0.74661689220718619</v>
       </c>
-      <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
-      </c>
-      <c r="E169" s="2">
+        <v>12</v>
+      </c>
+      <c r="C169" s="2">
         <v>0.57574031890660593</v>
       </c>
-      <c r="F169" s="2">
+      <c r="D169" s="2">
         <v>0.34880410022779046</v>
       </c>
-      <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="2">
+        <v>12</v>
+      </c>
+      <c r="C170" s="2">
         <v>0.19351338316855557</v>
       </c>
-      <c r="F170" s="2">
+      <c r="D170" s="2">
         <v>0.72413793103448276</v>
       </c>
-      <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B171" t="s">
-        <v>219</v>
-      </c>
-      <c r="E171" s="2">
+        <v>217</v>
+      </c>
+      <c r="C171" s="2">
         <v>0.35545681755068037</v>
       </c>
-      <c r="F171" s="2">
+      <c r="D171" s="2">
         <v>0.52596500971952231</v>
       </c>
-      <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
-      </c>
-      <c r="E172" s="2">
+        <v>7</v>
+      </c>
+      <c r="C172" s="2">
         <v>0.15384014376123134</v>
       </c>
-      <c r="F172" s="2">
+      <c r="D172" s="2">
         <v>0.77209156965387926</v>
       </c>
-      <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="2">
+        <v>9</v>
+      </c>
+      <c r="C173" s="2">
         <v>0.26227013316423586</v>
       </c>
-      <c r="F173" s="2">
+      <c r="D173" s="2">
         <v>0.62029169308814203</v>
       </c>
-      <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
-      </c>
-      <c r="E174" s="2">
+        <v>9</v>
+      </c>
+      <c r="C174" s="2">
         <v>0.11533071748878924</v>
       </c>
-      <c r="F174" s="2">
+      <c r="D174" s="2">
         <v>0.84206838565022424</v>
       </c>
-      <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
-      </c>
-      <c r="E175" s="2">
+        <v>34</v>
+      </c>
+      <c r="C175" s="2">
         <v>4.3432042520880787E-2</v>
       </c>
-      <c r="F175" s="2">
+      <c r="D175" s="2">
         <v>0.88041002277904323</v>
       </c>
-      <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" s="2">
+        <v>34</v>
+      </c>
+      <c r="C176" s="2">
         <v>7.1217056559076106E-2</v>
       </c>
-      <c r="F176" s="2">
+      <c r="D176" s="2">
         <v>0.83491264435889845</v>
       </c>
-      <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B177" t="s">
-        <v>36</v>
-      </c>
-      <c r="E177" s="2">
+        <v>34</v>
+      </c>
+      <c r="C177" s="2">
         <v>0.26472120896300155</v>
       </c>
-      <c r="F177" s="2">
+      <c r="D177" s="2">
         <v>0.66597186034392908</v>
       </c>
-      <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B178" t="s">
-        <v>36</v>
-      </c>
-      <c r="E178" s="2">
+        <v>34</v>
+      </c>
+      <c r="C178" s="2">
         <v>0.15692126613140528</v>
       </c>
-      <c r="F178" s="2">
+      <c r="D178" s="2">
         <v>0.7923830341754593</v>
       </c>
-      <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>36</v>
-      </c>
-      <c r="E179" s="2">
+        <v>34</v>
+      </c>
+      <c r="C179" s="2">
         <v>0.23798676646057057</v>
       </c>
-      <c r="F179" s="2">
+      <c r="D179" s="2">
         <v>0.69194055754420214</v>
       </c>
-      <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B180" t="s">
-        <v>36</v>
-      </c>
-      <c r="E180" s="2">
+        <v>34</v>
+      </c>
+      <c r="C180" s="2">
         <v>0.20452674897119341</v>
       </c>
-      <c r="F180" s="2">
+      <c r="D180" s="2">
         <v>0.72938271604938276</v>
       </c>
-      <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B181" t="s">
-        <v>36</v>
-      </c>
-      <c r="E181" s="2">
+        <v>34</v>
+      </c>
+      <c r="C181" s="2">
         <v>8.9959270409066761E-2</v>
       </c>
-      <c r="F181" s="2">
+      <c r="D181" s="2">
         <v>0.82468567380910218</v>
       </c>
-      <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B182" t="s">
-        <v>36</v>
-      </c>
-      <c r="E182" s="2">
+        <v>34</v>
+      </c>
+      <c r="C182" s="2">
         <v>6.145927944293067E-2</v>
       </c>
-      <c r="F182" s="2">
+      <c r="D182" s="2">
         <v>0.84165909778988801</v>
       </c>
-      <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" s="2">
+        <v>9</v>
+      </c>
+      <c r="C183" s="2">
         <v>0.49821240799158778</v>
       </c>
-      <c r="F183" s="2">
+      <c r="D183" s="2">
         <v>0.40767613038906414</v>
       </c>
-      <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B184" t="s">
-        <v>83</v>
-      </c>
-      <c r="E184" s="2">
+        <v>81</v>
+      </c>
+      <c r="C184" s="2">
         <v>0.30519480519480519</v>
       </c>
-      <c r="F184" s="2">
+      <c r="D184" s="2">
         <v>0.6223776223776224</v>
       </c>
-      <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B185" t="s">
-        <v>120</v>
-      </c>
-      <c r="E185" s="2">
+        <v>118</v>
+      </c>
+      <c r="C185" s="2">
         <v>0.55455248903791587</v>
       </c>
-      <c r="F185" s="2">
+      <c r="D185" s="2">
         <v>0.35388186742326538</v>
       </c>
-      <c r="H185" s="2"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B186" t="s">
-        <v>161</v>
-      </c>
-      <c r="E186" s="2">
+        <v>159</v>
+      </c>
+      <c r="C186" s="2">
         <v>0.58019070526587058</v>
       </c>
-      <c r="F186" s="2">
+      <c r="D186" s="2">
         <v>0.32840821235289064</v>
       </c>
-      <c r="H186" s="2"/>
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B187" t="s">
-        <v>63</v>
-      </c>
-      <c r="E187" s="2">
+        <v>61</v>
+      </c>
+      <c r="C187" s="2">
         <v>2.7855153203342618E-2</v>
       </c>
-      <c r="F187" s="2">
+      <c r="D187" s="2">
         <v>0.92791868250012222</v>
       </c>
-      <c r="H187" s="2"/>
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B188" t="s">
-        <v>26</v>
-      </c>
-      <c r="E188" s="2">
+        <v>24</v>
+      </c>
+      <c r="C188" s="2">
         <v>0.15818098420811219</v>
       </c>
-      <c r="F188" s="2">
+      <c r="D188" s="2">
         <v>0.78854596684358824</v>
       </c>
-      <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B189" t="s">
-        <v>61</v>
-      </c>
-      <c r="E189" s="2">
+        <v>59</v>
+      </c>
+      <c r="C189" s="2">
         <v>0.12683755240672928</v>
       </c>
-      <c r="F189" s="2">
+      <c r="D189" s="2">
         <v>0.79345114896778646</v>
       </c>
-      <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B190" t="s">
-        <v>61</v>
-      </c>
-      <c r="E190" s="2">
+        <v>59</v>
+      </c>
+      <c r="C190" s="2">
         <v>0.53358119453106256</v>
       </c>
-      <c r="F190" s="2">
+      <c r="D190" s="2">
         <v>0.36477572559366755</v>
       </c>
-      <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B191" t="s">
-        <v>61</v>
-      </c>
-      <c r="E191" s="2">
+        <v>59</v>
+      </c>
+      <c r="C191" s="2">
         <v>0.23174050288451073</v>
       </c>
-      <c r="F191" s="2">
+      <c r="D191" s="2">
         <v>0.69119407858931103</v>
       </c>
-      <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B192" t="s">
-        <v>51</v>
-      </c>
-      <c r="E192" s="2">
+        <v>49</v>
+      </c>
+      <c r="C192" s="2">
         <v>0.19335006273525721</v>
       </c>
-      <c r="F192" s="2">
+      <c r="D192" s="2">
         <v>0.74291091593475533</v>
       </c>
-      <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B193" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="2">
+        <v>24</v>
+      </c>
+      <c r="C193" s="2">
         <v>0.35388394946186241</v>
       </c>
-      <c r="F193" s="2">
+      <c r="D193" s="2">
         <v>0.58458118858212449</v>
       </c>
-      <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B194" t="s">
-        <v>243</v>
-      </c>
-      <c r="E194" s="2">
+        <v>241</v>
+      </c>
+      <c r="C194" s="2">
         <v>0.31330472103004292</v>
       </c>
-      <c r="F194" s="2">
+      <c r="D194" s="2">
         <v>0.61718831780592487</v>
       </c>
-      <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B195" t="s">
-        <v>61</v>
-      </c>
-      <c r="E195" s="2">
+        <v>59</v>
+      </c>
+      <c r="C195" s="2">
         <v>0.22451626290397883</v>
       </c>
-      <c r="F195" s="2">
+      <c r="D195" s="2">
         <v>0.69429890543134309</v>
       </c>
-      <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B196" t="s">
-        <v>83</v>
-      </c>
-      <c r="E196" s="2">
+        <v>81</v>
+      </c>
+      <c r="C196" s="2">
         <v>0.23200897638598461</v>
       </c>
-      <c r="F196" s="2">
+      <c r="D196" s="2">
         <v>0.69668995766817976</v>
       </c>
-      <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B197" t="s">
-        <v>80</v>
-      </c>
-      <c r="E197" s="2">
+        <v>78</v>
+      </c>
+      <c r="C197" s="2">
         <v>0.27765999214762466</v>
       </c>
-      <c r="F197" s="2">
+      <c r="D197" s="2">
         <v>0.6647035728307813</v>
       </c>
-      <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B198" t="s">
-        <v>248</v>
-      </c>
-      <c r="E198" s="2">
+        <v>246</v>
+      </c>
+      <c r="C198" s="2">
         <v>0.2417892921360684</v>
       </c>
-      <c r="F198" s="2">
+      <c r="D198" s="2">
         <v>0.68720413929764046</v>
       </c>
-      <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B199" t="s">
-        <v>20</v>
-      </c>
-      <c r="E199" s="2">
+        <v>18</v>
+      </c>
+      <c r="C199" s="2">
         <v>0.15742397137745975</v>
       </c>
-      <c r="F199" s="2">
+      <c r="D199" s="2">
         <v>0.79502871669334341</v>
       </c>
-      <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B200" t="s">
-        <v>22</v>
-      </c>
-      <c r="E200" s="2">
+        <v>20</v>
+      </c>
+      <c r="C200" s="2">
         <v>0.26804491178043127</v>
       </c>
-      <c r="F200" s="2">
+      <c r="D200" s="2">
         <v>0.49260381393690966</v>
       </c>
-      <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B201" t="s">
-        <v>63</v>
-      </c>
-      <c r="E201" s="2">
+        <v>61</v>
+      </c>
+      <c r="C201" s="2">
         <v>0.11881295943370541</v>
       </c>
-      <c r="F201" s="2">
+      <c r="D201" s="2">
         <v>0.81143479444595701</v>
       </c>
-      <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B202" t="s">
-        <v>63</v>
-      </c>
-      <c r="E202" s="2">
+        <v>61</v>
+      </c>
+      <c r="C202" s="2">
         <v>0.13447106565123132</v>
       </c>
-      <c r="F202" s="2">
+      <c r="D202" s="2">
         <v>0.78964923008505195</v>
       </c>
-      <c r="H202" s="2"/>
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B203" t="s">
-        <v>107</v>
-      </c>
-      <c r="E203" s="2">
+        <v>105</v>
+      </c>
+      <c r="C203" s="2">
         <v>0.19743601001009792</v>
       </c>
-      <c r="F203" s="2">
+      <c r="D203" s="2">
         <v>0.72744435175835276</v>
       </c>
-      <c r="H203" s="2"/>
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B204" t="s">
-        <v>89</v>
-      </c>
-      <c r="E204" s="2">
+        <v>87</v>
+      </c>
+      <c r="C204" s="2">
         <v>0.17529780564263323</v>
       </c>
-      <c r="F204" s="2">
+      <c r="D204" s="2">
         <v>0.74520376175548586</v>
       </c>
-      <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B205" t="s">
-        <v>77</v>
-      </c>
-      <c r="E205" s="2">
+        <v>75</v>
+      </c>
+      <c r="C205" s="2">
         <v>0.29011588275391959</v>
       </c>
-      <c r="F205" s="2">
+      <c r="D205" s="2">
         <v>0.62181322426721197</v>
       </c>
-      <c r="H205" s="2"/>
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B206" t="s">
-        <v>123</v>
-      </c>
-      <c r="E206" s="2">
+        <v>121</v>
+      </c>
+      <c r="C206" s="2">
         <v>0.45166430594900847</v>
       </c>
-      <c r="F206" s="2">
+      <c r="D206" s="2">
         <v>0.46547450424929177</v>
       </c>
-      <c r="H206" s="2"/>
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B207" t="s">
-        <v>77</v>
-      </c>
-      <c r="E207" s="2">
+        <v>75</v>
+      </c>
+      <c r="C207" s="2">
         <v>0.20021868545741708</v>
       </c>
-      <c r="F207" s="2">
+      <c r="D207" s="2">
         <v>0.73271777426801121</v>
       </c>
-      <c r="H207" s="2"/>
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B208" t="s">
-        <v>259</v>
-      </c>
-      <c r="E208" s="2">
+        <v>257</v>
+      </c>
+      <c r="C208" s="2">
         <v>0.31982274102896668</v>
       </c>
-      <c r="F208" s="2">
+      <c r="D208" s="2">
         <v>0.58895373973194987</v>
       </c>
-      <c r="H208" s="2"/>
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B209" t="s">
-        <v>110</v>
-      </c>
-      <c r="E209" s="2">
+        <v>108</v>
+      </c>
+      <c r="C209" s="2">
         <v>0.12648083623693379</v>
       </c>
-      <c r="F209" s="2">
+      <c r="D209" s="2">
         <v>0.8010452961672474</v>
       </c>
-      <c r="H209" s="2"/>
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B210" t="s">
-        <v>110</v>
-      </c>
-      <c r="E210" s="2">
+        <v>108</v>
+      </c>
+      <c r="C210" s="2">
         <v>0.48687902294107938</v>
       </c>
-      <c r="F210" s="2">
+      <c r="D210" s="2">
         <v>0.42762832150519886</v>
       </c>
-      <c r="H210" s="2"/>
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B211" t="s">
-        <v>24</v>
-      </c>
-      <c r="E211" s="2">
+        <v>22</v>
+      </c>
+      <c r="C211" s="2">
         <v>0.13453893522488114</v>
       </c>
-      <c r="F211" s="2">
+      <c r="D211" s="2">
         <v>0.77621014888144046</v>
       </c>
-      <c r="H211" s="2"/>
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B212" t="s">
-        <v>24</v>
-      </c>
-      <c r="E212" s="2">
+        <v>22</v>
+      </c>
+      <c r="C212" s="2">
         <v>0.22763608679101638</v>
       </c>
-      <c r="F212" s="2">
+      <c r="D212" s="2">
         <v>0.70536733917015604</v>
       </c>
-      <c r="H212" s="2"/>
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B213" t="s">
-        <v>24</v>
-      </c>
-      <c r="E213" s="2">
+        <v>22</v>
+      </c>
+      <c r="C213" s="2">
         <v>0.32549818341957504</v>
       </c>
-      <c r="F213" s="2">
+      <c r="D213" s="2">
         <v>0.60569195199823844</v>
       </c>
-      <c r="H213" s="2"/>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
-      </c>
-      <c r="E214" s="2">
+        <v>14</v>
+      </c>
+      <c r="C214" s="2">
         <v>0.39470835025037215</v>
       </c>
-      <c r="F214" s="2">
+      <c r="D214" s="2">
         <v>0.54154824739477603</v>
       </c>
-      <c r="H214" s="2"/>
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B215" t="s">
-        <v>83</v>
-      </c>
-      <c r="E215" s="2">
+        <v>81</v>
+      </c>
+      <c r="C215" s="2">
         <v>0.38022512585553481</v>
       </c>
-      <c r="F215" s="2">
+      <c r="D215" s="2">
         <v>0.57967079585949433</v>
       </c>
-      <c r="H215" s="2"/>
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
-      </c>
-      <c r="E216" s="2">
+        <v>51</v>
+      </c>
+      <c r="C216" s="2">
         <v>0.12337082663810034</v>
       </c>
-      <c r="F216" s="2">
+      <c r="D216" s="2">
         <v>0.82375171100398736</v>
       </c>
-      <c r="H216" s="2"/>
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B217" t="s">
-        <v>136</v>
-      </c>
-      <c r="E217" s="2">
+        <v>134</v>
+      </c>
+      <c r="C217" s="2">
         <v>0.13501524450085708</v>
       </c>
-      <c r="F217" s="2">
+      <c r="D217" s="2">
         <v>0.77350466494811632</v>
       </c>
-      <c r="H217" s="2"/>
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B218" t="s">
-        <v>136</v>
-      </c>
-      <c r="E218" s="2">
+        <v>134</v>
+      </c>
+      <c r="C218" s="2">
         <v>0.27637975407492138</v>
       </c>
-      <c r="F218" s="2">
+      <c r="D218" s="2">
         <v>0.60265942236202463</v>
       </c>
-      <c r="H218" s="2"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B219" t="s">
-        <v>138</v>
-      </c>
-      <c r="E219" s="2">
+        <v>136</v>
+      </c>
+      <c r="C219" s="2">
         <v>0.49713747941337932</v>
       </c>
-      <c r="F219" s="2">
+      <c r="D219" s="2">
         <v>0.45541526154811385</v>
       </c>
-      <c r="H219" s="2"/>
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B220" t="s">
-        <v>120</v>
-      </c>
-      <c r="E220" s="2">
+        <v>118</v>
+      </c>
+      <c r="C220" s="2">
         <v>0.27198440662718343</v>
       </c>
-      <c r="F220" s="2">
+      <c r="D220" s="2">
         <v>0.64562560911612565</v>
       </c>
-      <c r="H220" s="2"/>
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B221" t="s">
-        <v>120</v>
-      </c>
-      <c r="E221" s="2">
+        <v>118</v>
+      </c>
+      <c r="C221" s="2">
         <v>0.11706689536878216</v>
       </c>
-      <c r="F221" s="2">
+      <c r="D221" s="2">
         <v>0.82315608919382499</v>
       </c>
-      <c r="H221" s="2"/>
       <c r="I221" s="2"/>
       <c r="J221" s="2"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B222" t="s">
-        <v>120</v>
-      </c>
-      <c r="E222" s="2">
+        <v>118</v>
+      </c>
+      <c r="C222" s="2">
         <v>9.5158087673743702E-2</v>
       </c>
-      <c r="F222" s="2">
+      <c r="D222" s="2">
         <v>0.86787841759584539</v>
       </c>
-      <c r="H222" s="2"/>
       <c r="I222" s="2"/>
       <c r="J222" s="2"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B223" t="s">
-        <v>141</v>
-      </c>
-      <c r="E223" s="2">
+        <v>139</v>
+      </c>
+      <c r="C223" s="2">
         <v>0.19966235227912213</v>
       </c>
-      <c r="F223" s="2">
+      <c r="D223" s="2">
         <v>0.70523353967360725</v>
       </c>
-      <c r="H223" s="2"/>
       <c r="I223" s="2"/>
       <c r="J223" s="2"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
-      </c>
-      <c r="E224" s="2">
+        <v>274</v>
+      </c>
+      <c r="C224" s="2">
         <v>0.30265878877400293</v>
       </c>
-      <c r="F224" s="2">
+      <c r="D224" s="2">
         <v>0.60812407680945346</v>
       </c>
-      <c r="H224" s="2"/>
       <c r="I224" s="2"/>
       <c r="J224" s="2"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
-      </c>
-      <c r="E225" s="2">
+        <v>274</v>
+      </c>
+      <c r="C225" s="2">
         <v>0.48435326022874658</v>
       </c>
-      <c r="F225" s="2">
+      <c r="D225" s="2">
         <v>0.46253979483551466</v>
       </c>
-      <c r="H225" s="2"/>
       <c r="I225" s="2"/>
       <c r="J225" s="2"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B226" t="s">
-        <v>279</v>
-      </c>
-      <c r="E226" s="2">
+        <v>277</v>
+      </c>
+      <c r="C226" s="2">
         <v>0.27203379884990025</v>
       </c>
-      <c r="F226" s="2">
+      <c r="D226" s="2">
         <v>0.66600164299964792</v>
       </c>
-      <c r="H226" s="2"/>
       <c r="I226" s="2"/>
       <c r="J226" s="2"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B227" t="s">
-        <v>279</v>
-      </c>
-      <c r="E227" s="2">
+        <v>277</v>
+      </c>
+      <c r="C227" s="2">
         <v>0.28457154284571545</v>
       </c>
-      <c r="F227" s="2">
+      <c r="D227" s="2">
         <v>0.61773822617738228</v>
       </c>
-      <c r="H227" s="2"/>
       <c r="I227" s="2"/>
       <c r="J227" s="2"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B228" t="s">
-        <v>188</v>
-      </c>
-      <c r="E228" s="2">
+        <v>186</v>
+      </c>
+      <c r="C228" s="2">
         <v>0.25438687571384072</v>
       </c>
-      <c r="F228" s="2">
+      <c r="D228" s="2">
         <v>0.67500778735333822</v>
       </c>
-      <c r="H228" s="2"/>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B229" t="s">
-        <v>146</v>
-      </c>
-      <c r="E229" s="2">
+        <v>144</v>
+      </c>
+      <c r="C229" s="2">
         <v>0.12220982142857142</v>
       </c>
-      <c r="F229" s="2">
+      <c r="D229" s="2">
         <v>0.75212053571428572</v>
       </c>
-      <c r="H229" s="2"/>
       <c r="I229" s="2"/>
       <c r="J229" s="2"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
-      </c>
-      <c r="E230" s="2">
+        <v>121</v>
+      </c>
+      <c r="C230" s="2">
         <v>0.18413372247280446</v>
       </c>
-      <c r="F230" s="2">
+      <c r="D230" s="2">
         <v>0.75776067922525869</v>
       </c>
-      <c r="H230" s="2"/>
       <c r="I230" s="2"/>
       <c r="J230" s="2"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
-      </c>
-      <c r="E231" s="2">
+        <v>5</v>
+      </c>
+      <c r="C231" s="2">
         <v>0.12185265775567299</v>
       </c>
-      <c r="F231" s="2">
+      <c r="D231" s="2">
         <v>0.82369702621490004</v>
       </c>
-      <c r="H231" s="2"/>
       <c r="I231" s="2"/>
       <c r="J231" s="2"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="2">
+        <v>5</v>
+      </c>
+      <c r="C232" s="2">
         <v>0.17004843565911767</v>
       </c>
-      <c r="F232" s="2">
+      <c r="D232" s="2">
         <v>0.7900248723654929</v>
       </c>
-      <c r="H232" s="2"/>
       <c r="I232" s="2"/>
       <c r="J232" s="2"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
-      </c>
-      <c r="E233" s="2">
+        <v>5</v>
+      </c>
+      <c r="C233" s="2">
         <v>0.11304048234280792</v>
       </c>
-      <c r="F233" s="2">
+      <c r="D233" s="2">
         <v>0.85009474590869938</v>
       </c>
-      <c r="H233" s="2"/>
       <c r="I233" s="2"/>
       <c r="J233" s="2"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
-      </c>
-      <c r="E234" s="2">
+        <v>5</v>
+      </c>
+      <c r="C234" s="2">
         <v>0.41184064920693469</v>
       </c>
-      <c r="F234" s="2">
+      <c r="D234" s="2">
         <v>0.52462191073404651</v>
       </c>
-      <c r="H234" s="2"/>
       <c r="I234" s="2"/>
       <c r="J234" s="2"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B235" t="s">
-        <v>150</v>
-      </c>
-      <c r="E235" s="2">
+        <v>148</v>
+      </c>
+      <c r="C235" s="2">
         <v>0.48702950152594099</v>
       </c>
-      <c r="F235" s="2">
+      <c r="D235" s="2">
         <v>0.39788911495422175</v>
       </c>
-      <c r="H235" s="2"/>
       <c r="I235" s="2"/>
       <c r="J235" s="2"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B236" t="s">
-        <v>83</v>
-      </c>
-      <c r="E236" s="2">
+        <v>81</v>
+      </c>
+      <c r="C236" s="2">
         <v>0.5011462631820266</v>
       </c>
-      <c r="F236" s="2">
+      <c r="D236" s="2">
         <v>0.43634418462478985</v>
       </c>
-      <c r="H236" s="2"/>
       <c r="I236" s="2"/>
       <c r="J236" s="2"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B237" t="s">
-        <v>80</v>
-      </c>
-      <c r="E237" s="2">
+        <v>78</v>
+      </c>
+      <c r="C237" s="2">
         <v>0.78002271989613758</v>
       </c>
-      <c r="F237" s="2">
+      <c r="D237" s="2">
         <v>0.17981174943200259</v>
       </c>
-      <c r="H237" s="2"/>
       <c r="I237" s="2"/>
       <c r="J237" s="2"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B238" t="s">
-        <v>20</v>
-      </c>
-      <c r="E238" s="2">
+        <v>18</v>
+      </c>
+      <c r="C238" s="2">
         <v>0.31741156534632492</v>
       </c>
-      <c r="F238" s="2">
+      <c r="D238" s="2">
         <v>0.59515992374496929</v>
       </c>
-      <c r="H238" s="2"/>
       <c r="I238" s="2"/>
       <c r="J238" s="2"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B239" t="s">
-        <v>61</v>
-      </c>
-      <c r="E239" s="2">
+        <v>59</v>
+      </c>
+      <c r="C239" s="2">
         <v>0.38769707934866893</v>
       </c>
-      <c r="F239" s="2">
+      <c r="D239" s="2">
         <v>0.48591367278366504</v>
       </c>
-      <c r="H239" s="2"/>
       <c r="I239" s="2"/>
       <c r="J239" s="2"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B240" t="s">
-        <v>107</v>
-      </c>
-      <c r="E240" s="2">
+        <v>105</v>
+      </c>
+      <c r="C240" s="2">
         <v>0.41249351323300465</v>
       </c>
-      <c r="F240" s="2">
+      <c r="D240" s="2">
         <v>0.5</v>
       </c>
-      <c r="H240" s="2"/>
       <c r="I240" s="2"/>
       <c r="J240" s="2"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B241" t="s">
-        <v>18</v>
-      </c>
-      <c r="E241" s="2">
+        <v>16</v>
+      </c>
+      <c r="C241" s="2">
         <v>0.27953633526526972</v>
       </c>
-      <c r="F241" s="2">
+      <c r="D241" s="2">
         <v>0.63954525189478373</v>
       </c>
-      <c r="H241" s="2"/>
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B242" t="s">
-        <v>161</v>
-      </c>
-      <c r="E242" s="2">
+        <v>159</v>
+      </c>
+      <c r="C242" s="2">
         <v>0.30093549975381584</v>
       </c>
-      <c r="F242" s="2">
+      <c r="D242" s="2">
         <v>0.60285573609059573</v>
       </c>
-      <c r="H242" s="2"/>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B243" t="s">
-        <v>164</v>
-      </c>
-      <c r="E243" s="2">
+        <v>162</v>
+      </c>
+      <c r="C243" s="2">
         <v>9.6337579617834401E-2</v>
       </c>
-      <c r="F243" s="2">
+      <c r="D243" s="2">
         <v>0.79571390658174102</v>
       </c>
-      <c r="H243" s="2"/>
       <c r="I243" s="2"/>
       <c r="J243" s="2"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B244" t="s">
-        <v>71</v>
-      </c>
-      <c r="E244" s="2">
+        <v>69</v>
+      </c>
+      <c r="C244" s="2">
         <v>0.17598237941711622</v>
       </c>
-      <c r="F244" s="2">
+      <c r="D244" s="2">
         <v>0.77010246752003064</v>
       </c>
-      <c r="H244" s="2"/>
       <c r="I244" s="2"/>
       <c r="J244" s="2"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B245" t="s">
-        <v>32</v>
-      </c>
-      <c r="E245" s="2">
+        <v>30</v>
+      </c>
+      <c r="C245" s="2">
         <v>0.33606277720914363</v>
       </c>
-      <c r="F245" s="2">
+      <c r="D245" s="2">
         <v>0.5731832139201638</v>
       </c>
-      <c r="H245" s="2"/>
       <c r="I245" s="2"/>
       <c r="J245" s="2"/>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B246" t="s">
-        <v>34</v>
-      </c>
-      <c r="E246" s="2">
+        <v>32</v>
+      </c>
+      <c r="C246" s="2">
         <v>0.25516309592742714</v>
       </c>
-      <c r="F246" s="2">
+      <c r="D246" s="2">
         <v>0.68278324647751398</v>
       </c>
-      <c r="H246" s="2"/>
       <c r="I246" s="2"/>
       <c r="J246" s="2"/>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B247" t="s">
-        <v>36</v>
-      </c>
-      <c r="E247" s="2">
+        <v>34</v>
+      </c>
+      <c r="C247" s="2">
         <v>5.6677444939295954E-2</v>
       </c>
-      <c r="F247" s="2">
+      <c r="D247" s="2">
         <v>0.88652309194069912</v>
       </c>
-      <c r="H247" s="2"/>
       <c r="I247" s="2"/>
       <c r="J247" s="2"/>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
-      </c>
-      <c r="E248" s="2">
+        <v>12</v>
+      </c>
+      <c r="C248" s="2">
         <v>0.56815629912418597</v>
       </c>
-      <c r="F248" s="2">
+      <c r="D248" s="2">
         <v>0.39815854480125756</v>
       </c>
-      <c r="H248" s="2"/>
       <c r="I248" s="2"/>
       <c r="J248" s="2"/>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B249" t="s">
-        <v>57</v>
-      </c>
-      <c r="E249" s="2">
+        <v>55</v>
+      </c>
+      <c r="C249" s="2">
         <v>0.25898413973097772</v>
       </c>
-      <c r="F249" s="2">
+      <c r="D249" s="2">
         <v>0.65970688616743622</v>
       </c>
-      <c r="H249" s="2"/>
       <c r="I249" s="2"/>
       <c r="J249" s="2"/>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B250" t="s">
-        <v>181</v>
-      </c>
-      <c r="E250" s="2">
+        <v>179</v>
+      </c>
+      <c r="C250" s="2">
         <v>0.38500597371565115</v>
       </c>
-      <c r="F250" s="2">
+      <c r="D250" s="2">
         <v>0.54121863799283154</v>
       </c>
-      <c r="H250" s="2"/>
       <c r="I250" s="2"/>
       <c r="J250" s="2"/>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B251" t="s">
-        <v>83</v>
-      </c>
-      <c r="E251" s="2">
+        <v>81</v>
+      </c>
+      <c r="C251" s="2">
         <v>0.19532994923857869</v>
       </c>
-      <c r="F251" s="2">
+      <c r="D251" s="2">
         <v>0.76460236886632826</v>
       </c>
-      <c r="H251" s="2"/>
       <c r="I251" s="2"/>
       <c r="J251" s="2"/>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B252" t="s">
-        <v>36</v>
-      </c>
-      <c r="E252" s="2">
+        <v>34</v>
+      </c>
+      <c r="C252" s="2">
         <v>6.6803948882563136E-2</v>
       </c>
-      <c r="F252" s="2">
+      <c r="D252" s="2">
         <v>0.87911089576645873</v>
       </c>
-      <c r="H252" s="2"/>
       <c r="I252" s="2"/>
       <c r="J252" s="2"/>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B253" t="s">
-        <v>18</v>
-      </c>
-      <c r="E253" s="2">
+        <v>16</v>
+      </c>
+      <c r="C253" s="2">
         <v>0.59372156505914464</v>
       </c>
-      <c r="F253" s="2">
+      <c r="D253" s="2">
         <v>0.33803457688808008</v>
       </c>
-      <c r="H253" s="2"/>
       <c r="I253" s="2"/>
       <c r="J253" s="2"/>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B254" t="s">
-        <v>138</v>
-      </c>
-      <c r="E254" s="2">
+        <v>136</v>
+      </c>
+      <c r="C254" s="2">
         <v>0.40002606882168928</v>
       </c>
-      <c r="F254" s="2">
+      <c r="D254" s="2">
         <v>0.54535974973931178</v>
       </c>
-      <c r="H254" s="2"/>
       <c r="I254" s="2"/>
       <c r="J254" s="2"/>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B255" t="s">
-        <v>16</v>
-      </c>
-      <c r="E255" s="2">
+        <v>14</v>
+      </c>
+      <c r="C255" s="2">
         <v>0.35137070376432078</v>
       </c>
-      <c r="F255" s="2">
+      <c r="D255" s="2">
         <v>0.56045417348608839</v>
       </c>
-      <c r="H255" s="2"/>
       <c r="I255" s="2"/>
       <c r="J255" s="2"/>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B256" t="s">
-        <v>16</v>
-      </c>
-      <c r="E256" s="2">
+        <v>14</v>
+      </c>
+      <c r="C256" s="2">
         <v>0.22253057868229006</v>
       </c>
-      <c r="F256" s="2">
+      <c r="D256" s="2">
         <v>0.70921985815602839</v>
       </c>
-      <c r="H256" s="2"/>
       <c r="I256" s="2"/>
       <c r="J256" s="2"/>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B257" t="s">
-        <v>20</v>
-      </c>
-      <c r="E257" s="2">
+        <v>18</v>
+      </c>
+      <c r="C257" s="2">
         <v>0.41654010769018363</v>
       </c>
-      <c r="F257" s="2">
+      <c r="D257" s="2">
         <v>0.51428965898108514</v>
       </c>
-      <c r="H257" s="2"/>
       <c r="I257" s="2"/>
       <c r="J257" s="2"/>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B258" t="s">
-        <v>20</v>
-      </c>
-      <c r="E258" s="2">
+        <v>18</v>
+      </c>
+      <c r="C258" s="2">
         <v>0.13837783851976451</v>
       </c>
-      <c r="F258" s="2">
+      <c r="D258" s="2">
         <v>0.79278805719091672</v>
       </c>
-      <c r="H258" s="2"/>
       <c r="I258" s="2"/>
       <c r="J258" s="2"/>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
-      </c>
-      <c r="E259" s="2">
+        <v>18</v>
+      </c>
+      <c r="C259" s="2">
         <v>0.13727495908346973</v>
       </c>
-      <c r="F259" s="2">
+      <c r="D259" s="2">
         <v>0.83326513911620292</v>
       </c>
-      <c r="H259" s="2"/>
       <c r="I259" s="2"/>
       <c r="J259" s="2"/>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B260" t="s">
-        <v>20</v>
-      </c>
-      <c r="E260" s="2">
+        <v>18</v>
+      </c>
+      <c r="C260" s="2">
         <v>0.51903138758699052</v>
       </c>
-      <c r="F260" s="2">
+      <c r="D260" s="2">
         <v>0.41386166737679309</v>
       </c>
-      <c r="H260" s="2"/>
       <c r="I260" s="2"/>
       <c r="J260" s="2"/>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
-      </c>
-      <c r="E261" s="2">
+        <v>18</v>
+      </c>
+      <c r="C261" s="2">
         <v>0.20671220671220672</v>
       </c>
-      <c r="F261" s="2">
+      <c r="D261" s="2">
         <v>0.73032373032373032</v>
       </c>
-      <c r="H261" s="2"/>
       <c r="I261" s="2"/>
       <c r="J261" s="2"/>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B262" t="s">
-        <v>20</v>
-      </c>
-      <c r="E262" s="2">
+        <v>18</v>
+      </c>
+      <c r="C262" s="2">
         <v>0.26116270194631724</v>
       </c>
-      <c r="F262" s="2">
+      <c r="D262" s="2">
         <v>0.68871644828902179</v>
       </c>
-      <c r="H262" s="2"/>
       <c r="I262" s="2"/>
       <c r="J262" s="2"/>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B263" t="s">
-        <v>20</v>
-      </c>
-      <c r="E263" s="2">
+        <v>18</v>
+      </c>
+      <c r="C263" s="2">
         <v>0.35066801961779132</v>
       </c>
-      <c r="F263" s="2">
+      <c r="D263" s="2">
         <v>0.56629460510739049</v>
       </c>
-      <c r="H263" s="2"/>
       <c r="I263" s="2"/>
       <c r="J263" s="2"/>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B264" t="s">
-        <v>26</v>
-      </c>
-      <c r="E264" s="2">
+        <v>24</v>
+      </c>
+      <c r="C264" s="2">
         <v>0.21554865703873669</v>
       </c>
-      <c r="F264" s="2">
+      <c r="D264" s="2">
         <v>0.74072074503981644</v>
       </c>
-      <c r="H264" s="2"/>
       <c r="I264" s="2"/>
       <c r="J264" s="2"/>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B265" t="s">
-        <v>29</v>
-      </c>
-      <c r="E265" s="2">
+        <v>27</v>
+      </c>
+      <c r="C265" s="2">
         <v>0.13931853844429501</v>
       </c>
-      <c r="F265" s="2">
+      <c r="D265" s="2">
         <v>0.68347904057386233</v>
       </c>
-      <c r="H265" s="2"/>
       <c r="I265" s="2"/>
       <c r="J265" s="2"/>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B266" t="s">
-        <v>320</v>
-      </c>
-      <c r="E266" s="2">
+        <v>318</v>
+      </c>
+      <c r="C266" s="2">
         <v>0.17679860592481952</v>
       </c>
-      <c r="F266" s="2">
+      <c r="D266" s="2">
         <v>0.7058252427184466</v>
       </c>
-      <c r="H266" s="2"/>
       <c r="I266" s="2"/>
       <c r="J266" s="2"/>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B267" t="s">
-        <v>91</v>
-      </c>
-      <c r="E267" s="2">
+        <v>89</v>
+      </c>
+      <c r="C267" s="2">
         <v>0.1406653088934148</v>
       </c>
-      <c r="F267" s="2">
+      <c r="D267" s="2">
         <v>0.78913781398506455</v>
       </c>
-      <c r="H267" s="2"/>
       <c r="I267" s="2"/>
       <c r="J267" s="2"/>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B268" t="s">
-        <v>55</v>
-      </c>
-      <c r="E268" s="2">
+        <v>53</v>
+      </c>
+      <c r="C268" s="2">
         <v>7.3236282194848817E-2</v>
       </c>
-      <c r="F268" s="2">
+      <c r="D268" s="2">
         <v>0.83493840985442325</v>
       </c>
-      <c r="H268" s="2"/>
       <c r="I268" s="2"/>
       <c r="J268" s="2"/>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B269" t="s">
-        <v>83</v>
-      </c>
-      <c r="E269" s="2">
+        <v>81</v>
+      </c>
+      <c r="C269" s="2">
         <v>0.68881524440762221</v>
       </c>
-      <c r="F269" s="2">
+      <c r="D269" s="2">
         <v>0.26089478044739023</v>
       </c>
-      <c r="H269" s="2"/>
       <c r="I269" s="2"/>
       <c r="J269" s="2"/>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B270" t="s">
-        <v>80</v>
-      </c>
-      <c r="E270" s="2">
+        <v>78</v>
+      </c>
+      <c r="C270" s="2">
         <v>0.48972469949592867</v>
       </c>
-      <c r="F270" s="2">
+      <c r="D270" s="2">
         <v>0.4784800310197751</v>
       </c>
-      <c r="H270" s="2"/>
       <c r="I270" s="2"/>
       <c r="J270" s="2"/>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B271" t="s">
-        <v>127</v>
-      </c>
-      <c r="E271" s="2">
+        <v>125</v>
+      </c>
+      <c r="C271" s="2">
         <v>0.31723871962977246</v>
       </c>
-      <c r="F271" s="2">
+      <c r="D271" s="2">
         <v>0.58650212109525646</v>
       </c>
-      <c r="H271" s="2"/>
       <c r="I271" s="2"/>
       <c r="J271" s="2"/>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B272" t="s">
-        <v>127</v>
-      </c>
-      <c r="E272" s="2">
+        <v>125</v>
+      </c>
+      <c r="C272" s="2">
         <v>0.3129118690708958</v>
       </c>
-      <c r="F272" s="2">
+      <c r="D272" s="2">
         <v>0.59533637482801072</v>
       </c>
-      <c r="H272" s="2"/>
       <c r="I272" s="2"/>
       <c r="J272" s="2"/>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B273" t="s">
-        <v>127</v>
-      </c>
-      <c r="E273" s="2">
+        <v>125</v>
+      </c>
+      <c r="C273" s="2">
         <v>0.14885249750542937</v>
       </c>
-      <c r="F273" s="2">
+      <c r="D273" s="2">
         <v>0.76970710805893061</v>
       </c>
-      <c r="H273" s="2"/>
       <c r="I273" s="2"/>
       <c r="J273" s="2"/>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B274" t="s">
-        <v>127</v>
-      </c>
-      <c r="E274" s="2">
+        <v>125</v>
+      </c>
+      <c r="C274" s="2">
         <v>0.17640145127497572</v>
       </c>
-      <c r="F274" s="2">
+      <c r="D274" s="2">
         <v>0.74403393121774231</v>
       </c>
-      <c r="H274" s="2"/>
       <c r="I274" s="2"/>
       <c r="J274" s="2"/>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B275" t="s">
-        <v>127</v>
-      </c>
-      <c r="E275" s="2">
+        <v>125</v>
+      </c>
+      <c r="C275" s="2">
         <v>0.40463917525773196</v>
       </c>
-      <c r="F275" s="2">
+      <c r="D275" s="2">
         <v>0.50390502967822559</v>
       </c>
-      <c r="H275" s="2"/>
       <c r="I275" s="2"/>
       <c r="J275" s="2"/>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B276" t="s">
-        <v>127</v>
-      </c>
-      <c r="E276" s="2">
+        <v>125</v>
+      </c>
+      <c r="C276" s="2">
         <v>0.39287139247240327</v>
       </c>
-      <c r="F276" s="2">
+      <c r="D276" s="2">
         <v>0.50724830429578405</v>
       </c>
-      <c r="H276" s="2"/>
       <c r="I276" s="2"/>
       <c r="J276" s="2"/>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B277" t="s">
-        <v>332</v>
-      </c>
-      <c r="E277" s="2">
+        <v>330</v>
+      </c>
+      <c r="C277" s="2">
         <v>0.37382321086395071</v>
       </c>
-      <c r="F277" s="2">
+      <c r="D277" s="2">
         <v>0.46055152878447053</v>
       </c>
-      <c r="H277" s="2"/>
       <c r="I277" s="2"/>
       <c r="J277" s="2"/>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B278" t="s">
-        <v>29</v>
-      </c>
-      <c r="E278" s="2">
+        <v>27</v>
+      </c>
+      <c r="C278" s="2">
         <v>0.33564547206165701</v>
       </c>
-      <c r="F278" s="2">
+      <c r="D278" s="2">
         <v>0.27694283879254977</v>
       </c>
-      <c r="H278" s="2"/>
       <c r="I278" s="2"/>
       <c r="J278" s="2"/>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B279" t="s">
-        <v>29</v>
-      </c>
-      <c r="E279" s="2">
+        <v>27</v>
+      </c>
+      <c r="C279" s="2">
         <v>0.4693156108597285</v>
       </c>
-      <c r="F279" s="2">
+      <c r="D279" s="2">
         <v>0.16006787330316741</v>
       </c>
-      <c r="H279" s="2"/>
       <c r="I279" s="2"/>
       <c r="J279" s="2"/>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B280" t="s">
-        <v>80</v>
-      </c>
-      <c r="E280" s="2">
+        <v>78</v>
+      </c>
+      <c r="C280" s="2">
         <v>0.51633145615446496</v>
       </c>
-      <c r="F280" s="2">
+      <c r="D280" s="2">
         <v>0.45824617860016092</v>
       </c>
-      <c r="H280" s="2"/>
       <c r="I280" s="2"/>
       <c r="J280" s="2"/>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B281" t="s">
-        <v>16</v>
-      </c>
-      <c r="E281" s="2">
+        <v>14</v>
+      </c>
+      <c r="C281" s="2">
         <v>0.19102176856577441</v>
       </c>
-      <c r="F281" s="2">
+      <c r="D281" s="2">
         <v>0.73658993854806787</v>
       </c>
-      <c r="H281" s="2"/>
       <c r="I281" s="2"/>
       <c r="J281" s="2"/>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B282" t="s">
-        <v>71</v>
-      </c>
-      <c r="E282" s="2">
+        <v>69</v>
+      </c>
+      <c r="C282" s="2">
         <v>0.32123411978221417</v>
       </c>
-      <c r="F282" s="2">
+      <c r="D282" s="2">
         <v>0.63509528130671511</v>
       </c>
-      <c r="H282" s="2"/>
       <c r="I282" s="2"/>
       <c r="J282" s="2"/>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B283" t="s">
-        <v>91</v>
-      </c>
-      <c r="E283" s="2">
+        <v>89</v>
+      </c>
+      <c r="C283" s="2">
         <v>0.12101263371896026</v>
       </c>
-      <c r="F283" s="2">
+      <c r="D283" s="2">
         <v>0.81151072171934735</v>
       </c>
-      <c r="H283" s="2"/>
       <c r="I283" s="2"/>
       <c r="J283" s="2"/>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B284" t="s">
-        <v>91</v>
-      </c>
-      <c r="E284" s="2">
+        <v>89</v>
+      </c>
+      <c r="C284" s="2">
         <v>0.26609842178863952</v>
       </c>
-      <c r="F284" s="2">
+      <c r="D284" s="2">
         <v>0.63541319837517474</v>
       </c>
-      <c r="H284" s="2"/>
       <c r="I284" s="2"/>
       <c r="J284" s="2"/>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B285" t="s">
-        <v>55</v>
-      </c>
-      <c r="E285" s="2">
+        <v>53</v>
+      </c>
+      <c r="C285" s="2">
         <v>0.18399760263709919</v>
       </c>
-      <c r="F285" s="2">
+      <c r="D285" s="2">
         <v>0.69463590050943957</v>
       </c>
-      <c r="H285" s="2"/>
       <c r="I285" s="2"/>
       <c r="J285" s="2"/>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B286" t="s">
-        <v>120</v>
-      </c>
-      <c r="E286" s="2">
+        <v>118</v>
+      </c>
+      <c r="C286" s="2">
         <v>0.15845946137994743</v>
       </c>
-      <c r="F286" s="2">
+      <c r="D286" s="2">
         <v>0.78199388900731903</v>
       </c>
-      <c r="H286" s="2"/>
       <c r="I286" s="2"/>
       <c r="J286" s="2"/>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B287" t="s">
-        <v>53</v>
-      </c>
-      <c r="E287" s="2">
+        <v>51</v>
+      </c>
+      <c r="C287" s="2">
         <v>4.2136207741303285E-2</v>
       </c>
-      <c r="F287" s="2">
+      <c r="D287" s="2">
         <v>0.91719745222929938</v>
       </c>
-      <c r="H287" s="2"/>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B288" t="s">
-        <v>29</v>
-      </c>
-      <c r="E288" s="2">
+        <v>27</v>
+      </c>
+      <c r="C288" s="2">
         <v>0.37284415177171526</v>
       </c>
-      <c r="F288" s="2">
+      <c r="D288" s="2">
         <v>0.36876763875823143</v>
       </c>
-      <c r="H288" s="2"/>
       <c r="I288" s="2"/>
       <c r="J288" s="2"/>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B289" t="s">
-        <v>120</v>
-      </c>
-      <c r="E289" s="2">
+        <v>118</v>
+      </c>
+      <c r="C289" s="2">
         <v>0.29572281627551728</v>
       </c>
-      <c r="F289" s="2">
+      <c r="D289" s="2">
         <v>0.63032912095542282</v>
       </c>
-      <c r="H289" s="2"/>
       <c r="I289" s="2"/>
       <c r="J289" s="2"/>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B290" t="s">
-        <v>71</v>
-      </c>
-      <c r="E290" s="2">
+        <v>69</v>
+      </c>
+      <c r="C290" s="2">
         <v>0.29241578838603016</v>
       </c>
-      <c r="F290" s="2">
+      <c r="D290" s="2">
         <v>0.64607012468140801</v>
       </c>
-      <c r="H290" s="2"/>
       <c r="I290" s="2"/>
       <c r="J290" s="2"/>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B291" t="s">
-        <v>129</v>
-      </c>
-      <c r="E291" s="2">
+        <v>127</v>
+      </c>
+      <c r="C291" s="2">
         <v>0.39239646978954512</v>
       </c>
-      <c r="F291" s="2">
+      <c r="D291" s="2">
         <v>0.5127533701871787</v>
       </c>
-      <c r="H291" s="2"/>
       <c r="I291" s="2"/>
       <c r="J291" s="2"/>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B292" t="s">
-        <v>29</v>
-      </c>
-      <c r="E292" s="2">
+        <v>27</v>
+      </c>
+      <c r="C292" s="2">
         <v>0.24065964781514954</v>
       </c>
-      <c r="F292" s="2">
+      <c r="D292" s="2">
         <v>0.54905431845709496</v>
       </c>
-      <c r="H292" s="2"/>
       <c r="I292" s="2"/>
       <c r="J292" s="2"/>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B293" t="s">
-        <v>63</v>
-      </c>
-      <c r="E293" s="2">
+        <v>61</v>
+      </c>
+      <c r="C293" s="2">
         <v>0.38480594549958713</v>
       </c>
-      <c r="F293" s="2">
+      <c r="D293" s="2">
         <v>0.53014037985136253</v>
       </c>
-      <c r="H293" s="2"/>
       <c r="I293" s="2"/>
       <c r="J293" s="2"/>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B294" t="s">
-        <v>77</v>
-      </c>
-      <c r="E294" s="2">
+        <v>75</v>
+      </c>
+      <c r="C294" s="2">
         <v>0.35531872109390711</v>
       </c>
-      <c r="F294" s="2">
+      <c r="D294" s="2">
         <v>0.56927408003217372</v>
       </c>
-      <c r="H294" s="2"/>
       <c r="I294" s="2"/>
       <c r="J294" s="2"/>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B295" t="s">
-        <v>53</v>
-      </c>
-      <c r="E295" s="2">
+        <v>51</v>
+      </c>
+      <c r="C295" s="2">
         <v>0.20353315472203617</v>
       </c>
-      <c r="F295" s="2">
+      <c r="D295" s="2">
         <v>0.72186872069658403</v>
       </c>
-      <c r="H295" s="2"/>
       <c r="I295" s="2"/>
       <c r="J295" s="2"/>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B296" t="s">
-        <v>55</v>
-      </c>
-      <c r="E296" s="2">
+        <v>53</v>
+      </c>
+      <c r="C296" s="2">
         <v>9.4352384173148465E-2</v>
       </c>
-      <c r="F296" s="2">
+      <c r="D296" s="2">
         <v>0.78953894713110129</v>
       </c>
-      <c r="H296" s="2"/>
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B297" t="s">
-        <v>89</v>
-      </c>
-      <c r="E297" s="2">
+        <v>87</v>
+      </c>
+      <c r="C297" s="2">
         <v>0.11584890965732088</v>
       </c>
-      <c r="F297" s="2">
+      <c r="D297" s="2">
         <v>0.82106697819314645</v>
       </c>
-      <c r="H297" s="2"/>
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B298" t="s">
-        <v>113</v>
-      </c>
-      <c r="E298" s="2">
+        <v>111</v>
+      </c>
+      <c r="C298" s="2">
         <v>0.4538889724687829</v>
       </c>
-      <c r="F298" s="2">
+      <c r="D298" s="2">
         <v>0.51090717616970061</v>
       </c>
-      <c r="H298" s="2"/>
       <c r="I298" s="2"/>
       <c r="J298" s="2"/>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B299" t="s">
-        <v>243</v>
-      </c>
-      <c r="E299" s="2">
+        <v>241</v>
+      </c>
+      <c r="C299" s="2">
         <v>0.29436870183758151</v>
       </c>
-      <c r="F299" s="2">
+      <c r="D299" s="2">
         <v>0.65785417901600474</v>
       </c>
-      <c r="H299" s="2"/>
       <c r="I299" s="2"/>
       <c r="J299" s="2"/>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B300" t="s">
-        <v>26</v>
-      </c>
-      <c r="E300" s="2">
+        <v>24</v>
+      </c>
+      <c r="C300" s="2">
         <v>0.43052023121387284</v>
       </c>
-      <c r="F300" s="2">
+      <c r="D300" s="2">
         <v>0.50335260115606939</v>
       </c>
-      <c r="H300" s="2"/>
       <c r="I300" s="2"/>
       <c r="J300" s="2"/>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B301" t="s">
-        <v>51</v>
-      </c>
-      <c r="E301" s="2">
+        <v>49</v>
+      </c>
+      <c r="C301" s="2">
         <v>7.2578972834727307E-2</v>
       </c>
-      <c r="F301" s="2">
+      <c r="D301" s="2">
         <v>0.89766364830303447</v>
       </c>
-      <c r="H301" s="2"/>
       <c r="I301" s="2"/>
       <c r="J301" s="2"/>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B302" t="s">
-        <v>26</v>
-      </c>
-      <c r="E302" s="2">
+        <v>24</v>
+      </c>
+      <c r="C302" s="2">
         <v>9.0320047123502847E-2</v>
       </c>
-      <c r="F302" s="2">
+      <c r="D302" s="2">
         <v>0.8845474180247398</v>
       </c>
-      <c r="H302" s="2"/>
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
     </row>
